--- a/data/IEEE9/Market Data/ieee9_market_data_2020.xlsx
+++ b/data/IEEE9/Market Data/ieee9_market_data_2020.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\IEEE_9\Market Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\IEEE9\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEACDA39-C2B8-4379-AA05-1A47D2FC2C3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5F56937-8220-422C-83E6-35E1F74A34B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7590" yWindow="1995" windowWidth="21600" windowHeight="12660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8445" yWindow="7170" windowWidth="21600" windowHeight="12660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="1" r:id="rId1"/>
@@ -1325,7 +1325,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1338,11 +1338,10 @@
         <v>1</v>
       </c>
       <c r="B1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1">
-        <f>1/3</f>
-        <v>0.33333333333333331</v>
+        <v>1</v>
       </c>
       <c r="D1" s="1">
         <f>1/3</f>

--- a/data/IEEE9/Market Data/ieee9_market_data_2020.xlsx
+++ b/data/IEEE9/Market Data/ieee9_market_data_2020.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\IEEE9\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5F56937-8220-422C-83E6-35E1F74A34B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC9CA4AF-C68C-47AA-BF95-B2C36CD1A01D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8445" yWindow="7170" windowWidth="21600" windowHeight="12660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1325,7 +1325,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1338,10 +1338,11 @@
         <v>1</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1">
-        <v>1</v>
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
       </c>
       <c r="D1" s="1">
         <f>1/3</f>

--- a/data/IEEE9/Market Data/ieee9_market_data_2020.xlsx
+++ b/data/IEEE9/Market Data/ieee9_market_data_2020.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\IEEE9\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC9CA4AF-C68C-47AA-BF95-B2C36CD1A01D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE592686-EA6A-4399-99F7-EF9523E17D8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8445" yWindow="7170" windowWidth="21600" windowHeight="12660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1325,7 +1325,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1338,11 +1338,10 @@
         <v>1</v>
       </c>
       <c r="B1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1">
-        <f>1/3</f>
-        <v>0.33333333333333331</v>
+        <v>1</v>
       </c>
       <c r="D1" s="1">
         <f>1/3</f>

--- a/data/IEEE9/Market Data/ieee9_market_data_2020.xlsx
+++ b/data/IEEE9/Market Data/ieee9_market_data_2020.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\IEEE9\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE592686-EA6A-4399-99F7-EF9523E17D8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE8FFE60-4922-461D-8150-18588A1CC27C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8445" yWindow="7170" windowWidth="21600" windowHeight="12660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-27630" yWindow="2745" windowWidth="21600" windowHeight="12660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="1" r:id="rId1"/>
@@ -1325,7 +1325,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1338,10 +1338,11 @@
         <v>1</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1">
-        <v>1</v>
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
       </c>
       <c r="D1" s="1">
         <f>1/3</f>

--- a/data/IEEE9/Market Data/ieee9_market_data_2020.xlsx
+++ b/data/IEEE9/Market Data/ieee9_market_data_2020.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\IEEE9\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE592686-EA6A-4399-99F7-EF9523E17D8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E3EB418-F15F-44AD-9BD2-62ED04FFD62A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8445" yWindow="7170" windowWidth="21600" windowHeight="12660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5070" yWindow="4815" windowWidth="21600" windowHeight="12660" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="1" r:id="rId1"/>
@@ -1324,7 +1324,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -1847,8 +1847,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59BA0F2A-A97B-42BF-BD16-0283FFE6BEE7}">
   <dimension ref="A1:Y6"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:Y4"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="P4" sqref="P4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/data/IEEE9/Market Data/ieee9_market_data_2020.xlsx
+++ b/data/IEEE9/Market Data/ieee9_market_data_2020.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\IEEE9\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E3EB418-F15F-44AD-9BD2-62ED04FFD62A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84F7938A-9CAF-4CBE-BFA5-07B7572E816A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5070" yWindow="4815" windowWidth="21600" windowHeight="12660" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="1" r:id="rId1"/>
@@ -1324,7 +1324,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -1338,10 +1338,11 @@
         <v>1</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1">
-        <v>1</v>
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
       </c>
       <c r="D1" s="1">
         <f>1/3</f>
@@ -1847,8 +1848,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59BA0F2A-A97B-42BF-BD16-0283FFE6BEE7}">
   <dimension ref="A1:Y6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P4" sqref="P4"/>
+    <sheetView topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/data/IEEE9/Market Data/ieee9_market_data_2020.xlsx
+++ b/data/IEEE9/Market Data/ieee9_market_data_2020.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\IEEE9\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84F7938A-9CAF-4CBE-BFA5-07B7572E816A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77EC4106-C5AD-4786-8B6B-80F1422291F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23625" yWindow="4800" windowWidth="21600" windowHeight="12660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="1" r:id="rId1"/>
@@ -1338,11 +1338,10 @@
         <v>1</v>
       </c>
       <c r="B1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1">
-        <f>1/3</f>
-        <v>0.33333333333333331</v>
+        <v>1</v>
       </c>
       <c r="D1" s="1">
         <f>1/3</f>

--- a/data/IEEE9/Market Data/ieee9_market_data_2020.xlsx
+++ b/data/IEEE9/Market Data/ieee9_market_data_2020.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\IEEE9\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77EC4106-C5AD-4786-8B6B-80F1422291F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C2CF101-4385-423D-AA0C-057C76BDC73B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23625" yWindow="4800" windowWidth="21600" windowHeight="12660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29760" yWindow="-11565" windowWidth="28800" windowHeight="15375" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="1" r:id="rId1"/>
@@ -1325,23 +1325,24 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.7109375" customWidth="1"/>
+    <col min="1" max="1" width="17.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1">
-        <v>1</v>
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
       </c>
       <c r="D1" s="1">
         <f>1/3</f>
@@ -1355,7 +1356,7 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -1363,7 +1364,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -1371,7 +1372,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -1380,7 +1381,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -1403,9 +1404,9 @@
       <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -1482,7 +1483,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1583,7 +1584,7 @@
         <v>42.69</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1684,7 +1685,7 @@
         <v>41.71</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1785,7 +1786,7 @@
         <v>43.67</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
@@ -1811,7 +1812,7 @@
       <c r="X5" s="2"/>
       <c r="Y5" s="2"/>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
@@ -1851,9 +1852,9 @@
       <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -1930,7 +1931,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2031,7 +2032,7 @@
         <v>48.115416666666654</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2132,7 +2133,7 @@
         <v>44.000416666666666</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2233,7 +2234,7 @@
         <v>52.230416666666663</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
@@ -2259,7 +2260,7 @@
       <c r="X5" s="2"/>
       <c r="Y5" s="2"/>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
@@ -2299,9 +2300,9 @@
       <selection activeCell="B2" sqref="B2:Y4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -2378,7 +2379,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2479,7 +2480,7 @@
         <v>38.14</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2580,7 +2581,7 @@
         <v>42.5</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2681,7 +2682,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
@@ -2707,7 +2708,7 @@
       <c r="X5" s="2"/>
       <c r="Y5" s="2"/>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
@@ -2747,9 +2748,9 @@
       <selection activeCell="B2" sqref="B2:Y4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -2826,7 +2827,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2927,7 +2928,7 @@
         <v>37.574999999999996</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -3028,7 +3029,7 @@
         <v>42.067083333333329</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -3129,7 +3130,7 @@
         <v>42.006249999999994</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
@@ -3155,7 +3156,7 @@
       <c r="X5" s="2"/>
       <c r="Y5" s="2"/>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>

--- a/data/IEEE9/Market Data/ieee9_market_data_2020.xlsx
+++ b/data/IEEE9/Market Data/ieee9_market_data_2020.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\IEEE9\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C2CF101-4385-423D-AA0C-057C76BDC73B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B482197-BB3C-439E-BCB8-63A2A20BCEB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="29760" yWindow="-11565" windowWidth="28800" windowHeight="15375" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1325,7 +1325,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1338,11 +1338,10 @@
         <v>1</v>
       </c>
       <c r="B1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1">
-        <f>1/3</f>
-        <v>0.33333333333333331</v>
+        <v>1</v>
       </c>
       <c r="D1" s="1">
         <f>1/3</f>

--- a/data/IEEE9/Market Data/ieee9_market_data_2020.xlsx
+++ b/data/IEEE9/Market Data/ieee9_market_data_2020.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\IEEE9\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B482197-BB3C-439E-BCB8-63A2A20BCEB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F2EC985-A545-4E40-8A51-D8F7B551616A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29760" yWindow="-11565" windowWidth="28800" windowHeight="15375" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="67080" yWindow="-10980" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="1" r:id="rId1"/>

--- a/data/IEEE9/Market Data/ieee9_market_data_2020.xlsx
+++ b/data/IEEE9/Market Data/ieee9_market_data_2020.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\IEEE9\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F2EC985-A545-4E40-8A51-D8F7B551616A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{853D8FFF-1316-4FCD-8D40-CB0537DE9207}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="67080" yWindow="-10980" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-12645" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="1" r:id="rId1"/>
@@ -149,7 +149,7 @@
         </row>
         <row r="4">
           <cell r="B4">
-            <v>5.0000000000000001E-3</v>
+            <v>0.01</v>
           </cell>
         </row>
         <row r="5">
@@ -1325,7 +1325,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1338,10 +1338,11 @@
         <v>1</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1">
-        <v>1</v>
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
       </c>
       <c r="D1" s="1">
         <f>1/3</f>

--- a/data/IEEE9/Market Data/ieee9_market_data_2020.xlsx
+++ b/data/IEEE9/Market Data/ieee9_market_data_2020.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\IEEE9\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{853D8FFF-1316-4FCD-8D40-CB0537DE9207}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{837BA996-DF3D-43B7-BED3-18D5852DF70E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-12645" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="1" r:id="rId1"/>
@@ -1325,7 +1325,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1338,11 +1338,10 @@
         <v>1</v>
       </c>
       <c r="B1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1">
-        <f>1/3</f>
-        <v>0.33333333333333331</v>
+        <v>1</v>
       </c>
       <c r="D1" s="1">
         <f>1/3</f>
